--- a/experiment/output/results/VLCS/CORAL/DG/3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250128_21-54-15_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>79.119</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79.85899999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75.23099999999999</v>
-      </c>
+          <t>250211_06-09-18_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,17 +514,55 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250206_16-14-36_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>250128_21-54-15_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>79.119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79.85899999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75.23099999999999</v>
+      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250211_06-11-45_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>77.86</v>
+      </c>
+      <c r="E4" t="n">
+        <v>77.083</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74.26900000000001</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/CORAL/DG/3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,81 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250211_06-09-18_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>250128_21-54-15_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>79.119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79.85899999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75.23099999999999</v>
+      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250128_21-54-15_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>79.119</v>
-      </c>
-      <c r="E3" t="n">
-        <v>79.85899999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75.23099999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250211_06-11-45_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>77.86</v>
-      </c>
-      <c r="E4" t="n">
-        <v>77.083</v>
-      </c>
-      <c r="F4" t="n">
-        <v>74.26900000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/CORAL/DG/3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250218_12-45-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
